--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/15/seed3/result_data_RandomForest.xlsx
@@ -559,12 +559,12 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.1111</v>
+        <v>14.9419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.31680000000001</v>
+        <v>-22.33580000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-22.0397</v>
+        <v>-22.12950000000001</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.569</v>
+        <v>-21.509</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.8496</v>
+        <v>15.9311</v>
       </c>
     </row>
     <row r="16">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.13070000000002</v>
+        <v>-22.14690000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.73840000000001</v>
+        <v>17.87850000000001</v>
       </c>
     </row>
     <row r="19">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.91479999999998</v>
+        <v>15.88129999999998</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.12880000000002</v>
+        <v>17.04040000000001</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5143</v>
+        <v>15.65999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>15.9527</v>
+        <v>16.1569</v>
       </c>
     </row>
     <row r="32">
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.6534</v>
+        <v>-19.8205</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>17.09140000000001</v>
+        <v>17.12410000000001</v>
       </c>
     </row>
     <row r="41">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.36159999999999</v>
+        <v>16.29959999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.18590000000002</v>
+        <v>-22.18789999999998</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.53819999999999</v>
+        <v>-21.49719999999999</v>
       </c>
       <c r="B68" t="n">
         <v>4.88</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>16.96850000000001</v>
+        <v>16.9995</v>
       </c>
     </row>
     <row r="69">
@@ -1732,12 +1732,12 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.16269999999999</v>
+        <v>16.22169999999999</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.43259999999999</v>
+        <v>-20.41679999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.96369999999997</v>
+        <v>-19.83779999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.87620000000001</v>
+        <v>-21.8493</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.96130000000001</v>
+        <v>-21.87469999999999</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.2037</v>
+        <v>16.1419</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.3937</v>
+        <v>16.3683</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.27029999999999</v>
+        <v>16.18609999999998</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>15.6117</v>
+        <v>15.414</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.81560000000001</v>
+        <v>16.84420000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.72219999999999</v>
+        <v>16.7355</v>
       </c>
     </row>
   </sheetData>
